--- a/Excel Data/unAuthAccounts.xlsx
+++ b/Excel Data/unAuthAccounts.xlsx
@@ -1,33 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Account Number</t>
   </si>
   <si>
-    <t>1008617679</t>
+    <t>1008617782</t>
+  </si>
+  <si>
+    <t>1008617783</t>
+  </si>
+  <si>
+    <t>1008617784</t>
+  </si>
+  <si>
+    <t>1008617785</t>
+  </si>
+  <si>
+    <t>1008617786</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -39,7 +58,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -57,18 +76,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -78,7 +373,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Data/unAuthAccounts.xlsx
+++ b/Excel Data/unAuthAccounts.xlsx
@@ -24,19 +24,19 @@
     <t>Account Number</t>
   </si>
   <si>
-    <t>1008617782</t>
-  </si>
-  <si>
-    <t>1008617783</t>
-  </si>
-  <si>
-    <t>1008617784</t>
-  </si>
-  <si>
-    <t>1008617785</t>
-  </si>
-  <si>
-    <t>1008617786</t>
+    <t>1008617924</t>
+  </si>
+  <si>
+    <t>1008617925</t>
+  </si>
+  <si>
+    <t>1008617926</t>
+  </si>
+  <si>
+    <t>1008617927</t>
+  </si>
+  <si>
+    <t>1008617928</t>
   </si>
 </sst>
 </file>

--- a/Excel Data/unAuthAccounts.xlsx
+++ b/Excel Data/unAuthAccounts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
@@ -19,31 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Account Number</t>
   </si>
-  <si>
-    <t>1008617924</t>
-  </si>
-  <si>
-    <t>1008617925</t>
-  </si>
-  <si>
-    <t>1008617926</t>
-  </si>
-  <si>
-    <t>1008617927</t>
-  </si>
-  <si>
-    <t>1008617928</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,7 +339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A16"/>
@@ -368,31 +352,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel Data/unAuthAccounts.xlsx
+++ b/Excel Data/unAuthAccounts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,15 +13,250 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="ban gai accounts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Account Number</t>
+  </si>
+  <si>
+    <t>1008784101</t>
+  </si>
+  <si>
+    <t>1008784103</t>
+  </si>
+  <si>
+    <t>1008784104</t>
+  </si>
+  <si>
+    <t>1008784105</t>
+  </si>
+  <si>
+    <t>1008784106</t>
+  </si>
+  <si>
+    <t>1008784107</t>
+  </si>
+  <si>
+    <t>1008784108</t>
+  </si>
+  <si>
+    <t>1008784109</t>
+  </si>
+  <si>
+    <t>1008784110</t>
+  </si>
+  <si>
+    <t>1008784111</t>
+  </si>
+  <si>
+    <t>1008784112</t>
+  </si>
+  <si>
+    <t>1008784113</t>
+  </si>
+  <si>
+    <t>1008784114</t>
+  </si>
+  <si>
+    <t>1008784116</t>
+  </si>
+  <si>
+    <t>1008784117</t>
+  </si>
+  <si>
+    <t>1008784118</t>
+  </si>
+  <si>
+    <t>1008784119</t>
+  </si>
+  <si>
+    <t>1008784120</t>
+  </si>
+  <si>
+    <t>1008784121</t>
+  </si>
+  <si>
+    <t>1008784122</t>
+  </si>
+  <si>
+    <t>1008784123</t>
+  </si>
+  <si>
+    <t>1008784124</t>
+  </si>
+  <si>
+    <t>1008784125</t>
+  </si>
+  <si>
+    <t>1008784126</t>
+  </si>
+  <si>
+    <t>1008784127</t>
+  </si>
+  <si>
+    <t>1008784128</t>
+  </si>
+  <si>
+    <t>1008784129</t>
+  </si>
+  <si>
+    <t>1008784130</t>
+  </si>
+  <si>
+    <t>1008784131</t>
+  </si>
+  <si>
+    <t>1008784132</t>
+  </si>
+  <si>
+    <t>1008784133</t>
+  </si>
+  <si>
+    <t>1008784134</t>
+  </si>
+  <si>
+    <t>1008784135</t>
+  </si>
+  <si>
+    <t>1008784136</t>
+  </si>
+  <si>
+    <t>1008784137</t>
+  </si>
+  <si>
+    <t>1008784138</t>
+  </si>
+  <si>
+    <t>1008784139</t>
+  </si>
+  <si>
+    <t>1008784140</t>
+  </si>
+  <si>
+    <t>1008784141</t>
+  </si>
+  <si>
+    <t>1008784142</t>
+  </si>
+  <si>
+    <t>1008784143</t>
+  </si>
+  <si>
+    <t>1008784144</t>
+  </si>
+  <si>
+    <t>1008784145</t>
+  </si>
+  <si>
+    <t>1008784146</t>
+  </si>
+  <si>
+    <t>1008784147</t>
+  </si>
+  <si>
+    <t>1008784148</t>
+  </si>
+  <si>
+    <t>1008784149</t>
+  </si>
+  <si>
+    <t>1008784150</t>
+  </si>
+  <si>
+    <t>1008784151</t>
+  </si>
+  <si>
+    <t>1008784152</t>
+  </si>
+  <si>
+    <t>1008784153</t>
+  </si>
+  <si>
+    <t>1008784154</t>
+  </si>
+  <si>
+    <t>1008784155</t>
+  </si>
+  <si>
+    <t>1008784156</t>
+  </si>
+  <si>
+    <t>1008784157</t>
+  </si>
+  <si>
+    <t>1008784158</t>
+  </si>
+  <si>
+    <t>1008784159</t>
+  </si>
+  <si>
+    <t>1008784160</t>
+  </si>
+  <si>
+    <t>1008784161</t>
+  </si>
+  <si>
+    <t>1008784162</t>
+  </si>
+  <si>
+    <t>1008784163</t>
+  </si>
+  <si>
+    <t>1008784164</t>
+  </si>
+  <si>
+    <t>1008784165</t>
+  </si>
+  <si>
+    <t>1008784166</t>
+  </si>
+  <si>
+    <t>1008784167</t>
+  </si>
+  <si>
+    <t>1008784168</t>
+  </si>
+  <si>
+    <t>1008784169</t>
+  </si>
+  <si>
+    <t>1008784170</t>
+  </si>
+  <si>
+    <t>1008784171</t>
+  </si>
+  <si>
+    <t>1008784172</t>
+  </si>
+  <si>
+    <t>1008784173</t>
+  </si>
+  <si>
+    <t>1008784174</t>
+  </si>
+  <si>
+    <t>1008784175</t>
+  </si>
+  <si>
+    <t>1008784176</t>
+  </si>
+  <si>
+    <t>1008784177</t>
+  </si>
+  <si>
+    <t>1008784178</t>
+  </si>
+  <si>
+    <t>1008784179</t>
+  </si>
+  <si>
+    <t>1008784180</t>
   </si>
 </sst>
 </file>
@@ -339,10 +574,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1008784181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1008784182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1008784183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1008784184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1008784185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1008784186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1008784187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1008784188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -352,6 +650,396 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel Data/unAuthAccounts.xlsx
+++ b/Excel Data/unAuthAccounts.xlsx
@@ -574,60 +574,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1008784181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1008784182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1008784183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1008784184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1008784185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1008784186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1008784187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1008784188</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/unAuthAccounts.xlsx
+++ b/Excel Data/unAuthAccounts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Account Number</t>
   </si>
@@ -257,12 +257,16 @@
   </si>
   <si>
     <t>1008784180</t>
+  </si>
+  <si>
+    <t>1008784223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
@@ -582,12 +586,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/unAuthAccounts.xlsx
+++ b/Excel Data/unAuthAccounts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
-    <sheet name="ban gai accounts" sheetId="2" r:id="rId2"/>
+    <sheet name="Txn of Regression UAT2" sheetId="3" r:id="rId2"/>
+    <sheet name="ban gai accounts" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>Account Number</t>
   </si>
@@ -259,14 +260,52 @@
     <t>1008784180</t>
   </si>
   <si>
-    <t>1008784223</t>
+    <t>AFSPKCRACC</t>
+  </si>
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA AKK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD BBA</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Account type Name</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>AlfalahKifayat</t>
+  </si>
+  <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Individuals- Business / Self-Employ</t>
+  </si>
+  <si>
+    <t>Individuals - Salaried</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Individuals - Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,15 +617,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="B8" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -594,9 +633,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1008784258</v>
+      </c>
+      <c r="B2">
+        <v>1070</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
+      </c>
+      <c r="D2">
+        <v>17866752</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1008784259</v>
+      </c>
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>17866753</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1008784262</v>
+      </c>
+      <c r="B4">
+        <v>1150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>17866756</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1008784263</v>
+      </c>
+      <c r="B5">
+        <v>1005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <v>17866759</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1008784270</v>
+      </c>
+      <c r="B6">
+        <v>1070</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>17866761</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1008784271</v>
+      </c>
+      <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>17866762</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1008784273</v>
+      </c>
+      <c r="B8">
+        <v>6005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>17866764</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A79"/>
   <sheetViews>

--- a/Excel Data/unAuthAccounts.xlsx
+++ b/Excel Data/unAuthAccounts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
   <si>
     <t>Account Number</t>
   </si>
@@ -300,12 +300,151 @@
   </si>
   <si>
     <t xml:space="preserve"> Individuals - Others</t>
+  </si>
+  <si>
+    <t>1008784331</t>
+  </si>
+  <si>
+    <t>1008784332</t>
+  </si>
+  <si>
+    <t>1008784333</t>
+  </si>
+  <si>
+    <t>1008784334</t>
+  </si>
+  <si>
+    <t>1008784335</t>
+  </si>
+  <si>
+    <t>1008784336</t>
+  </si>
+  <si>
+    <t>1008784337</t>
+  </si>
+  <si>
+    <t>1008784338</t>
+  </si>
+  <si>
+    <t>1008784339</t>
+  </si>
+  <si>
+    <t>1008784340</t>
+  </si>
+  <si>
+    <t>UAT2</t>
+  </si>
+  <si>
+    <t>1008784444</t>
+  </si>
+  <si>
+    <t>1008784445</t>
+  </si>
+  <si>
+    <t>1008784446</t>
+  </si>
+  <si>
+    <t>1008784447</t>
+  </si>
+  <si>
+    <t>1008784448</t>
+  </si>
+  <si>
+    <t>1008784449</t>
+  </si>
+  <si>
+    <t>1008784450</t>
+  </si>
+  <si>
+    <t>1008784451</t>
+  </si>
+  <si>
+    <t>1008784453</t>
+  </si>
+  <si>
+    <t>1008784454</t>
+  </si>
+  <si>
+    <t>1008784455</t>
+  </si>
+  <si>
+    <t>1008784456</t>
+  </si>
+  <si>
+    <t>1008784458</t>
+  </si>
+  <si>
+    <t>1008784459</t>
+  </si>
+  <si>
+    <t>1008784460</t>
+  </si>
+  <si>
+    <t>1008784461</t>
+  </si>
+  <si>
+    <t>1008784462</t>
+  </si>
+  <si>
+    <t>1008784463</t>
+  </si>
+  <si>
+    <t>1008784464</t>
+  </si>
+  <si>
+    <t>1008784465</t>
+  </si>
+  <si>
+    <t>1008784467</t>
+  </si>
+  <si>
+    <t>1008784468</t>
+  </si>
+  <si>
+    <t>1008784469</t>
+  </si>
+  <si>
+    <t>1008784470</t>
+  </si>
+  <si>
+    <t>1008784471</t>
+  </si>
+  <si>
+    <t>1008784472</t>
+  </si>
+  <si>
+    <t>1008784473</t>
+  </si>
+  <si>
+    <t>1008784475</t>
+  </si>
+  <si>
+    <t>1008784476</t>
+  </si>
+  <si>
+    <t>1008784477</t>
+  </si>
+  <si>
+    <t>1008784478</t>
+  </si>
+  <si>
+    <t>1008784479</t>
+  </si>
+  <si>
+    <t>1008784481</t>
+  </si>
+  <si>
+    <t>1008784482</t>
+  </si>
+  <si>
+    <t>1008784483</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,20 +756,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="A2:B8"/>
+      <selection activeCell="D10" sqref="A2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -649,10 +963,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,90 +1112,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
